--- a/reports/_GAP_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_51_.xlsx
+++ b/reports/_GAP_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_51_.xlsx
@@ -105,13 +105,36 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -142,8 +165,130 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -331,13 +476,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -368,8 +543,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -557,13 +889,43 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="6.856179775280899" hidden="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="26.6561797752809"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="28.4561797752809"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.656179775280899"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="33.8561797752809"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="21.2561797752809"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="24.8561797752809"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="30.2561797752809"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.4561797752809"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.0561797752809"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.6561797752809"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="6.856179775280899"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.4561797752809"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="15.8561797752809"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="12.2561797752809"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="10.4561797752809"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -594,8 +956,165 @@
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
+    <row r="5">
       <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>SL #</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="I5" s="3" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="J5" s="3" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="K5" s="3" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="L5" s="3" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="M5" s="3" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="N5" s="3" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="O5" s="3" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="P5" s="3" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="Q5" s="3" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="R5" s="3" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="S5" s="3" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="T5" s="3" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="U5" s="3" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="V5" s="3" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="W5" s="3" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="X5" s="3" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="Y5" s="3" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Z5" s="3" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="AA5" s="3" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AB5" s="3" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AC5" s="3" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AD5" s="3" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AE5" s="3" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="6">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -812,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="61.389887640449444"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="67.98988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1044,7 +1563,7 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="M6" s="0" t="d">
+      <c r="M6" s="4" t="d">
         <v>2018-02-08T00:00:00</v>
       </c>
       <c r="N6" s="0" t="inlineStr">
@@ -1066,7 +1585,7 @@
       </c>
       <c r="S6" s="0"/>
       <c r="T6" s="0"/>
-      <c r="U6" s="0"/>
+      <c r="U6" s="4"/>
       <c r="V6" s="0" t="n">
         <v>1392434</v>
       </c>
@@ -1102,232 +1621,74 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>36895</v>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>CRXU3446057</t>
-        </is>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G7" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I7" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J7" s="0" t="inlineStr">
-        <is>
-          <t>C/MONTRY</t>
-        </is>
-      </c>
-      <c r="K7" s="0" t="inlineStr">
-        <is>
-          <t>1817/17</t>
-        </is>
-      </c>
-      <c r="L7" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="d">
-        <v>2018-02-08T00:00:00</v>
-      </c>
-      <c r="N7" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A7" s="0"/>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
       <c r="O7" s="0"/>
-      <c r="P7" s="0" t="n">
-        <v>298</v>
-      </c>
-      <c r="Q7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
       <c r="S7" s="0"/>
       <c r="T7" s="0"/>
       <c r="U7" s="4"/>
-      <c r="V7" s="0" t="n">
-        <v>1392434</v>
-      </c>
-      <c r="W7" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
       <c r="X7" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y7" s="0" t="inlineStr">
-        <is>
           <t>RIGHT DOOR BTM GASKET LOOSE FULLY</t>
         </is>
       </c>
-      <c r="Z7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB7" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
     </row>
     <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>36895</v>
-      </c>
-      <c r="C8" s="0" t="inlineStr">
-        <is>
-          <t>CRXU3446057</t>
-        </is>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E8" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F8" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G8" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I8" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J8" s="0" t="inlineStr">
-        <is>
-          <t>C/MONTRY</t>
-        </is>
-      </c>
-      <c r="K8" s="0" t="inlineStr">
-        <is>
-          <t>1817/17</t>
-        </is>
-      </c>
-      <c r="L8" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M8" s="4" t="d">
-        <v>2018-02-08T00:00:00</v>
-      </c>
-      <c r="N8" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A8" s="0"/>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="0"/>
       <c r="O8" s="0"/>
-      <c r="P8" s="0" t="n">
-        <v>298</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
       <c r="U8" s="4"/>
-      <c r="V8" s="0" t="n">
-        <v>1392434</v>
-      </c>
-      <c r="W8" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0"/>
       <c r="X8" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y8" s="0" t="inlineStr">
-        <is>
           <t>F/BOARD DIRTY BY BLACK CARBON DUST</t>
         </is>
       </c>
-      <c r="Z8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB8" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y8" s="0"/>
+      <c r="Z8" s="0"/>
+      <c r="AA8" s="0"/>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>36896</v>
@@ -1438,232 +1799,74 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>36896</v>
-      </c>
-      <c r="C10" s="0" t="inlineStr">
-        <is>
-          <t>CRSU1098639</t>
-        </is>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E10" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G10" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I10" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J10" s="0" t="inlineStr">
-        <is>
-          <t>C/MONTRY</t>
-        </is>
-      </c>
-      <c r="K10" s="0" t="inlineStr">
-        <is>
-          <t>1817/17</t>
-        </is>
-      </c>
-      <c r="L10" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M10" s="4" t="d">
-        <v>2018-02-08T00:00:00</v>
-      </c>
-      <c r="N10" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A10" s="0"/>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="0"/>
       <c r="O10" s="0"/>
-      <c r="P10" s="0" t="n">
-        <v>298</v>
-      </c>
-      <c r="Q10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
       <c r="U10" s="4"/>
-      <c r="V10" s="0" t="n">
-        <v>1392435</v>
-      </c>
-      <c r="W10" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0"/>
       <c r="X10" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y10" s="0" t="inlineStr">
-        <is>
           <t>LEFT DOOR LOCK BAR BENT 01 PEC</t>
         </is>
       </c>
-      <c r="Z10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y10" s="0"/>
+      <c r="Z10" s="0"/>
+      <c r="AA10" s="0"/>
     </row>
     <row r="11">
-      <c r="A11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>36896</v>
-      </c>
-      <c r="C11" s="0" t="inlineStr">
-        <is>
-          <t>CRSU1098639</t>
-        </is>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F11" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G11" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J11" s="0" t="inlineStr">
-        <is>
-          <t>C/MONTRY</t>
-        </is>
-      </c>
-      <c r="K11" s="0" t="inlineStr">
-        <is>
-          <t>1817/17</t>
-        </is>
-      </c>
-      <c r="L11" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M11" s="4" t="d">
-        <v>2018-02-08T00:00:00</v>
-      </c>
-      <c r="N11" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A11" s="0"/>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
       <c r="O11" s="0"/>
-      <c r="P11" s="0" t="n">
-        <v>298</v>
-      </c>
-      <c r="Q11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="4"/>
-      <c r="V11" s="0" t="n">
-        <v>1392435</v>
-      </c>
-      <c r="W11" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0"/>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y11" s="0" t="inlineStr">
-        <is>
           <t>F/BOARD DIRTY BY BLACK CARBON DUST</t>
         </is>
       </c>
-      <c r="Z11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB11" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y11" s="0"/>
+      <c r="Z11" s="0"/>
+      <c r="AA11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>36897</v>
@@ -1774,344 +1977,107 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="B13" s="0" t="n">
-        <v>36897</v>
-      </c>
-      <c r="C13" s="0" t="inlineStr">
-        <is>
-          <t>TGHU2624127</t>
-        </is>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E13" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F13" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G13" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H13" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I13" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J13" s="0" t="inlineStr">
-        <is>
-          <t>C/MONTRY</t>
-        </is>
-      </c>
-      <c r="K13" s="0" t="inlineStr">
-        <is>
-          <t>1817/17</t>
-        </is>
-      </c>
-      <c r="L13" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M13" s="4" t="d">
-        <v>2018-02-08T00:00:00</v>
-      </c>
-      <c r="N13" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A13" s="0"/>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="0"/>
       <c r="O13" s="0"/>
-      <c r="P13" s="0" t="n">
-        <v>298</v>
-      </c>
-      <c r="Q13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
       <c r="U13" s="4"/>
-      <c r="V13" s="0" t="n">
-        <v>1392475</v>
-      </c>
-      <c r="W13" s="0" t="inlineStr">
-        <is>
-          <t>DOORS-(D)</t>
-        </is>
-      </c>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0"/>
       <c r="X13" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
-        </is>
-      </c>
-      <c r="Y13" s="0" t="inlineStr">
-        <is>
           <t>B/DOOR BTM GASKET LOOSE FULLY</t>
         </is>
       </c>
-      <c r="Z13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB13" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y13" s="0"/>
+      <c r="Z13" s="0"/>
+      <c r="AA13" s="0"/>
     </row>
     <row r="14">
-      <c r="A14" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="B14" s="0" t="n">
-        <v>36897</v>
-      </c>
-      <c r="C14" s="0" t="inlineStr">
-        <is>
-          <t>TGHU2624127</t>
-        </is>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E14" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F14" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G14" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I14" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J14" s="0" t="inlineStr">
-        <is>
-          <t>C/MONTRY</t>
-        </is>
-      </c>
-      <c r="K14" s="0" t="inlineStr">
-        <is>
-          <t>1817/17</t>
-        </is>
-      </c>
-      <c r="L14" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M14" s="4" t="d">
-        <v>2018-02-08T00:00:00</v>
-      </c>
-      <c r="N14" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A14" s="0"/>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
       <c r="O14" s="0"/>
-      <c r="P14" s="0" t="n">
-        <v>298</v>
-      </c>
-      <c r="Q14" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="4"/>
-      <c r="V14" s="0" t="n">
-        <v>1392475</v>
-      </c>
-      <c r="W14" s="0" t="inlineStr">
-        <is>
-          <t>PANELS-(PANELS)</t>
-        </is>
-      </c>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0"/>
       <c r="X14" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
-        </is>
-      </c>
-      <c r="Y14" s="0" t="inlineStr">
-        <is>
           <t>ROOF PANEL CORROSION HOLE 02' BUT SELECON FITTING </t>
         </is>
       </c>
-      <c r="Z14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB14" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y14" s="0"/>
+      <c r="Z14" s="0"/>
+      <c r="AA14" s="0"/>
     </row>
     <row r="15">
-      <c r="A15" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="B15" s="0" t="n">
-        <v>36897</v>
-      </c>
-      <c r="C15" s="0" t="inlineStr">
-        <is>
-          <t>TGHU2624127</t>
-        </is>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E15" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F15" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G15" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I15" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J15" s="0" t="inlineStr">
-        <is>
-          <t>C/MONTRY</t>
-        </is>
-      </c>
-      <c r="K15" s="0" t="inlineStr">
-        <is>
-          <t>1817/17</t>
-        </is>
-      </c>
-      <c r="L15" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M15" s="4" t="d">
-        <v>2018-02-08T00:00:00</v>
-      </c>
-      <c r="N15" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A15" s="0"/>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
       <c r="O15" s="0"/>
-      <c r="P15" s="0" t="n">
-        <v>298</v>
-      </c>
-      <c r="Q15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="0" t="n">
-        <v>1392475</v>
-      </c>
-      <c r="W15" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0"/>
       <c r="X15" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y15" s="0" t="inlineStr">
-        <is>
           <t>F/B DIRTY BY  BLACK CARBON DUST</t>
         </is>
       </c>
-      <c r="Z15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB15" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y15" s="0"/>
+      <c r="Z15" s="0"/>
+      <c r="AA15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>36898</v>
@@ -2222,120 +2188,41 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="B17" s="0" t="n">
-        <v>36898</v>
-      </c>
-      <c r="C17" s="0" t="inlineStr">
-        <is>
-          <t>TGHU2140499</t>
-        </is>
-      </c>
-      <c r="D17" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E17" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F17" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G17" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I17" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="J17" s="0" t="inlineStr">
-        <is>
-          <t>C/MONTRY</t>
-        </is>
-      </c>
-      <c r="K17" s="0" t="inlineStr">
-        <is>
-          <t>1817/17</t>
-        </is>
-      </c>
-      <c r="L17" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M17" s="4" t="d">
-        <v>2018-02-08T00:00:00</v>
-      </c>
-      <c r="N17" s="0" t="inlineStr">
-        <is>
-          <t>CLEANED</t>
-        </is>
-      </c>
+      <c r="A17" s="0"/>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0"/>
       <c r="O17" s="0"/>
-      <c r="P17" s="0" t="n">
-        <v>298</v>
-      </c>
-      <c r="Q17" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="4"/>
-      <c r="V17" s="0" t="n">
-        <v>1392521</v>
-      </c>
-      <c r="W17" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0"/>
       <c r="X17" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y17" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY BADLY BLACK STAIN &amp; BLACK STONE DUST</t>
         </is>
       </c>
-      <c r="Z17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB17" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y17" s="0"/>
+      <c r="Z17" s="0"/>
+      <c r="AA17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>36956</v>
@@ -2446,120 +2333,41 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="B19" s="0" t="n">
-        <v>36956</v>
-      </c>
-      <c r="C19" s="0" t="inlineStr">
-        <is>
-          <t>GESU3625927</t>
-        </is>
-      </c>
-      <c r="D19" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E19" s="0" t="inlineStr">
-        <is>
-          <t>GP</t>
-        </is>
-      </c>
-      <c r="F19" s="0" t="inlineStr">
-        <is>
-          <t>ELL</t>
-        </is>
-      </c>
-      <c r="G19" s="0" t="inlineStr">
-        <is>
-          <t>GAP</t>
-        </is>
-      </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="J19" s="0" t="inlineStr">
-        <is>
-          <t>M GOUGH</t>
-        </is>
-      </c>
-      <c r="K19" s="0" t="inlineStr">
-        <is>
-          <t>1854/18</t>
-        </is>
-      </c>
-      <c r="L19" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="M19" s="4" t="d">
-        <v>2018-05-15T00:00:00</v>
-      </c>
-      <c r="N19" s="0" t="inlineStr">
-        <is>
-          <t>REPAIRED</t>
-        </is>
-      </c>
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="0"/>
       <c r="O19" s="0"/>
-      <c r="P19" s="0" t="n">
-        <v>202</v>
-      </c>
-      <c r="Q19" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="4"/>
-      <c r="V19" s="0" t="n">
-        <v>1428314</v>
-      </c>
-      <c r="W19" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0"/>
       <c r="X19" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="Y19" s="0" t="inlineStr">
-        <is>
           <t>FLOOR BOARD DIRTY BY BADLY COAL DUST &amp; ODUR </t>
         </is>
       </c>
-      <c r="Z19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AB19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
+      <c r="Y19" s="0"/>
+      <c r="Z19" s="0"/>
+      <c r="AA19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>36957</v>
@@ -2671,7 +2479,7 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>36958</v>

--- a/reports/_GAP_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_51_.xlsx
+++ b/reports/_GAP_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_51_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="237.38988764044944" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1331,7 +1331,7 @@
     <col min="21" max="21" bestFit="true" customWidth="true" width="12.2561797752809"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="24.8561797752809"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="61.389887640449444"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="25" max="25" bestFit="true" customWidth="true" width="67.98988764044944"/>
     <col min="26" max="26" bestFit="true" customWidth="true" width="28.4561797752809"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="21.2561797752809"/>
@@ -1621,70 +1621,28 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
-      <c r="I7" s="0"/>
-      <c r="J7" s="0"/>
-      <c r="K7" s="0"/>
-      <c r="L7" s="0"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="0"/>
-      <c r="O7" s="0"/>
-      <c r="P7" s="0"/>
-      <c r="Q7" s="0"/>
-      <c r="R7" s="0"/>
-      <c r="S7" s="0"/>
-      <c r="T7" s="0"/>
-      <c r="U7" s="4"/>
-      <c r="V7" s="0"/>
-      <c r="W7" s="0"/>
-      <c r="X7" s="0" t="inlineStr">
-        <is>
-          <t>RIGHT DOOR BTM GASKET LOOSE FULLY</t>
-        </is>
-      </c>
-      <c r="Y7" s="0"/>
-      <c r="Z7" s="0"/>
-      <c r="AA7" s="0"/>
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR BTM GASKET LOOSE FULLY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="0"/>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="4"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0" t="inlineStr">
-        <is>
-          <t>F/BOARD DIRTY BY BLACK CARBON DUST</t>
-        </is>
-      </c>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY BLACK CARBON DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
@@ -1799,70 +1757,28 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="0"/>
-      <c r="B10" s="0"/>
-      <c r="C10" s="0"/>
-      <c r="D10" s="0"/>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="0"/>
-      <c r="I10" s="0"/>
-      <c r="J10" s="0"/>
-      <c r="K10" s="0"/>
-      <c r="L10" s="0"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="0"/>
-      <c r="O10" s="0"/>
-      <c r="P10" s="0"/>
-      <c r="Q10" s="0"/>
-      <c r="R10" s="0"/>
-      <c r="S10" s="0"/>
-      <c r="T10" s="0"/>
-      <c r="U10" s="4"/>
-      <c r="V10" s="0"/>
-      <c r="W10" s="0"/>
-      <c r="X10" s="0" t="inlineStr">
-        <is>
-          <t>LEFT DOOR LOCK BAR BENT 01 PEC</t>
-        </is>
-      </c>
-      <c r="Y10" s="0"/>
-      <c r="Z10" s="0"/>
-      <c r="AA10" s="0"/>
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCK BAR BENT 01 PEC", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="0"/>
-      <c r="B11" s="0"/>
-      <c r="C11" s="0"/>
-      <c r="D11" s="0"/>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="0"/>
-      <c r="I11" s="0"/>
-      <c r="J11" s="0"/>
-      <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="0"/>
-      <c r="O11" s="0"/>
-      <c r="P11" s="0"/>
-      <c r="Q11" s="0"/>
-      <c r="R11" s="0"/>
-      <c r="S11" s="0"/>
-      <c r="T11" s="0"/>
-      <c r="U11" s="4"/>
-      <c r="V11" s="0"/>
-      <c r="W11" s="0"/>
-      <c r="X11" s="0" t="inlineStr">
-        <is>
-          <t>F/BOARD DIRTY BY BLACK CARBON DUST</t>
-        </is>
-      </c>
-      <c r="Y11" s="0"/>
-      <c r="Z11" s="0"/>
-      <c r="AA11" s="0"/>
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY BLACK CARBON DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
@@ -1977,103 +1893,40 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="0"/>
-      <c r="B13" s="0"/>
-      <c r="C13" s="0"/>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
-      <c r="P13" s="0"/>
-      <c r="Q13" s="0"/>
-      <c r="R13" s="0"/>
-      <c r="S13" s="0"/>
-      <c r="T13" s="0"/>
-      <c r="U13" s="4"/>
-      <c r="V13" s="0"/>
-      <c r="W13" s="0"/>
-      <c r="X13" s="0" t="inlineStr">
-        <is>
-          <t>B/DOOR BTM GASKET LOOSE FULLY</t>
-        </is>
-      </c>
-      <c r="Y13" s="0"/>
-      <c r="Z13" s="0"/>
-      <c r="AA13" s="0"/>
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "B/DOOR BTM GASKET LOOSE FULLY", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="0"/>
-      <c r="B14" s="0"/>
-      <c r="C14" s="0"/>
-      <c r="D14" s="0"/>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
-      <c r="I14" s="0"/>
-      <c r="J14" s="0"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="0"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="0"/>
-      <c r="O14" s="0"/>
-      <c r="P14" s="0"/>
-      <c r="Q14" s="0"/>
-      <c r="R14" s="0"/>
-      <c r="S14" s="0"/>
-      <c r="T14" s="0"/>
-      <c r="U14" s="4"/>
-      <c r="V14" s="0"/>
-      <c r="W14" s="0"/>
-      <c r="X14" s="0" t="inlineStr">
-        <is>
-          <t>ROOF PANEL CORROSION HOLE 02' BUT SELECON FITTING </t>
-        </is>
-      </c>
-      <c r="Y14" s="0"/>
-      <c r="Z14" s="0"/>
-      <c r="AA14" s="0"/>
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL CORROSION HOLE 02' BUT SELECON FITTING ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="0"/>
-      <c r="B15" s="0"/>
-      <c r="C15" s="0"/>
-      <c r="D15" s="0"/>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
-      <c r="I15" s="0"/>
-      <c r="J15" s="0"/>
-      <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="0"/>
-      <c r="O15" s="0"/>
-      <c r="P15" s="0"/>
-      <c r="Q15" s="0"/>
-      <c r="R15" s="0"/>
-      <c r="S15" s="0"/>
-      <c r="T15" s="0"/>
-      <c r="U15" s="4"/>
-      <c r="V15" s="0"/>
-      <c r="W15" s="0"/>
-      <c r="X15" s="0" t="inlineStr">
-        <is>
-          <t>F/B DIRTY BY  BLACK CARBON DUST</t>
-        </is>
-      </c>
-      <c r="Y15" s="0"/>
-      <c r="Z15" s="0"/>
-      <c r="AA15" s="0"/>
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY  BLACK CARBON DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
@@ -2188,37 +2041,16 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="0"/>
-      <c r="B17" s="0"/>
-      <c r="C17" s="0"/>
-      <c r="D17" s="0"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="0"/>
-      <c r="I17" s="0"/>
-      <c r="J17" s="0"/>
-      <c r="K17" s="0"/>
-      <c r="L17" s="0"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
-      <c r="P17" s="0"/>
-      <c r="Q17" s="0"/>
-      <c r="R17" s="0"/>
-      <c r="S17" s="0"/>
-      <c r="T17" s="0"/>
-      <c r="U17" s="4"/>
-      <c r="V17" s="0"/>
-      <c r="W17" s="0"/>
-      <c r="X17" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY BADLY BLACK STAIN &amp; BLACK STONE DUST</t>
-        </is>
-      </c>
-      <c r="Y17" s="0"/>
-      <c r="Z17" s="0"/>
-      <c r="AA17" s="0"/>
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY BADLY BLACK STAIN &amp; BLACK STONE DUST", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
@@ -2333,37 +2165,16 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
-      <c r="C19" s="0"/>
-      <c r="D19" s="0"/>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="0"/>
-      <c r="I19" s="0"/>
-      <c r="J19" s="0"/>
-      <c r="K19" s="0"/>
-      <c r="L19" s="0"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="0"/>
-      <c r="O19" s="0"/>
-      <c r="P19" s="0"/>
-      <c r="Q19" s="0"/>
-      <c r="R19" s="0"/>
-      <c r="S19" s="0"/>
-      <c r="T19" s="0"/>
-      <c r="U19" s="4"/>
-      <c r="V19" s="0"/>
-      <c r="W19" s="0"/>
-      <c r="X19" s="0" t="inlineStr">
-        <is>
-          <t>FLOOR BOARD DIRTY BY BADLY COAL DUST &amp; ODUR </t>
-        </is>
-      </c>
-      <c r="Y19" s="0"/>
-      <c r="Z19" s="0"/>
-      <c r="AA19" s="0"/>
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY BADLY COAL DUST &amp; ODUR ", "", "", ""]</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">

--- a/reports/_GAP_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_51_.xlsx
+++ b/reports/_GAP_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_51_.xlsx
@@ -1309,7 +1309,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="237.38988764044944" hidden="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="8.589887640449438" hidden="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="24.8561797752809"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.4561797752809"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="23.0561797752809"/>
@@ -1626,9 +1626,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "RIGHT DOOR BTM GASKET LOOSE FULLY", "", "", ""]</t>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t>RIGHT DOOR BTM GASKET LOOSE FULLY</t>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB7" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1638,9 +1684,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B8" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY BLACK CARBON DUST", "", "", ""]</t>
+      <c r="B8" s="0"/>
+      <c r="C8" s="0"/>
+      <c r="D8" s="0"/>
+      <c r="E8" s="0"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+      <c r="L8" s="0"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+      <c r="Q8" s="0"/>
+      <c r="R8" s="0"/>
+      <c r="S8" s="0"/>
+      <c r="T8" s="0"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="0"/>
+      <c r="W8" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X8" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y8" s="0" t="inlineStr">
+        <is>
+          <t>F/BOARD DIRTY BY BLACK CARBON DUST</t>
+        </is>
+      </c>
+      <c r="Z8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB8" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1762,9 +1854,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B10" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "LEFT DOOR LOCK BAR BENT 01 PEC", "", "", ""]</t>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="D10" s="0"/>
+      <c r="E10" s="0"/>
+      <c r="F10" s="0"/>
+      <c r="G10" s="0"/>
+      <c r="H10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
+      <c r="L10" s="0"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
+      <c r="Q10" s="0"/>
+      <c r="R10" s="0"/>
+      <c r="S10" s="0"/>
+      <c r="T10" s="0"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="0"/>
+      <c r="W10" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X10" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y10" s="0" t="inlineStr">
+        <is>
+          <t>LEFT DOOR LOCK BAR BENT 01 PEC</t>
+        </is>
+      </c>
+      <c r="Z10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB10" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1774,9 +1912,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B11" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/BOARD DIRTY BY BLACK CARBON DUST", "", "", ""]</t>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="D11" s="0"/>
+      <c r="E11" s="0"/>
+      <c r="F11" s="0"/>
+      <c r="G11" s="0"/>
+      <c r="H11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
+      <c r="L11" s="0"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+      <c r="Q11" s="0"/>
+      <c r="R11" s="0"/>
+      <c r="S11" s="0"/>
+      <c r="T11" s="0"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="0"/>
+      <c r="W11" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X11" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y11" s="0" t="inlineStr">
+        <is>
+          <t>F/BOARD DIRTY BY BLACK CARBON DUST</t>
+        </is>
+      </c>
+      <c r="Z11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB11" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1898,9 +2082,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B13" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "DOORS-(D)", "Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)", "B/DOOR BTM GASKET LOOSE FULLY", "", "", ""]</t>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+      <c r="P13" s="0"/>
+      <c r="Q13" s="0"/>
+      <c r="R13" s="0"/>
+      <c r="S13" s="0"/>
+      <c r="T13" s="0"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="0"/>
+      <c r="W13" s="0" t="inlineStr">
+        <is>
+          <t>DOORS-(D)</t>
+        </is>
+      </c>
+      <c r="X13" s="0" t="inlineStr">
+        <is>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+        </is>
+      </c>
+      <c r="Y13" s="0" t="inlineStr">
+        <is>
+          <t>B/DOOR BTM GASKET LOOSE FULLY</t>
+        </is>
+      </c>
+      <c r="Z13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA13" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB13" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1910,9 +2140,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B14" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "PANELS-(PANELS)", "Right side panel -(Right side panel )", "ROOF PANEL CORROSION HOLE 02' BUT SELECON FITTING ", "", "", ""]</t>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="D14" s="0"/>
+      <c r="E14" s="0"/>
+      <c r="F14" s="0"/>
+      <c r="G14" s="0"/>
+      <c r="H14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
+      <c r="L14" s="0"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="0"/>
+      <c r="O14" s="0"/>
+      <c r="P14" s="0"/>
+      <c r="Q14" s="0"/>
+      <c r="R14" s="0"/>
+      <c r="S14" s="0"/>
+      <c r="T14" s="0"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="0"/>
+      <c r="W14" s="0" t="inlineStr">
+        <is>
+          <t>PANELS-(PANELS)</t>
+        </is>
+      </c>
+      <c r="X14" s="0" t="inlineStr">
+        <is>
+          <t>Right side panel -(Right side panel )</t>
+        </is>
+      </c>
+      <c r="Y14" s="0" t="inlineStr">
+        <is>
+          <t>ROOF PANEL CORROSION HOLE 02' BUT SELECON FITTING </t>
+        </is>
+      </c>
+      <c r="Z14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA14" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB14" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -1922,9 +2198,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B15" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "F/B DIRTY BY  BLACK CARBON DUST", "", "", ""]</t>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="D15" s="0"/>
+      <c r="E15" s="0"/>
+      <c r="F15" s="0"/>
+      <c r="G15" s="0"/>
+      <c r="H15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
+      <c r="L15" s="0"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="0"/>
+      <c r="O15" s="0"/>
+      <c r="P15" s="0"/>
+      <c r="Q15" s="0"/>
+      <c r="R15" s="0"/>
+      <c r="S15" s="0"/>
+      <c r="T15" s="0"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="0"/>
+      <c r="W15" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X15" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y15" s="0" t="inlineStr">
+        <is>
+          <t>F/B DIRTY BY  BLACK CARBON DUST</t>
+        </is>
+      </c>
+      <c r="Z15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA15" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB15" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2046,9 +2368,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B17" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY BADLY BLACK STAIN &amp; BLACK STONE DUST", "", "", ""]</t>
+      <c r="B17" s="0"/>
+      <c r="C17" s="0"/>
+      <c r="D17" s="0"/>
+      <c r="E17" s="0"/>
+      <c r="F17" s="0"/>
+      <c r="G17" s="0"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
+      <c r="L17" s="0"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="0"/>
+      <c r="O17" s="0"/>
+      <c r="P17" s="0"/>
+      <c r="Q17" s="0"/>
+      <c r="R17" s="0"/>
+      <c r="S17" s="0"/>
+      <c r="T17" s="0"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="0"/>
+      <c r="W17" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X17" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y17" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY BADLY BLACK STAIN &amp; BLACK STONE DUST</t>
+        </is>
+      </c>
+      <c r="Z17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA17" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB17" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -2170,9 +2538,55 @@
           <t> </t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t>[nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, nil, "FLOORS-(F)", "Threshold plate-(Threshold plate)", "FLOOR BOARD DIRTY BY BADLY COAL DUST &amp; ODUR ", "", "", ""]</t>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
+      <c r="D19" s="0"/>
+      <c r="E19" s="0"/>
+      <c r="F19" s="0"/>
+      <c r="G19" s="0"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
+      <c r="L19" s="0"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="0"/>
+      <c r="O19" s="0"/>
+      <c r="P19" s="0"/>
+      <c r="Q19" s="0"/>
+      <c r="R19" s="0"/>
+      <c r="S19" s="0"/>
+      <c r="T19" s="0"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="0"/>
+      <c r="W19" s="0" t="inlineStr">
+        <is>
+          <t>FLOORS-(F)</t>
+        </is>
+      </c>
+      <c r="X19" s="0" t="inlineStr">
+        <is>
+          <t>Threshold plate-(Threshold plate)</t>
+        </is>
+      </c>
+      <c r="Y19" s="0" t="inlineStr">
+        <is>
+          <t>FLOOR BOARD DIRTY BY BADLY COAL DUST &amp; ODUR </t>
+        </is>
+      </c>
+      <c r="Z19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AB19" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>

--- a/reports/_GAP_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_51_.xlsx
+++ b/reports/_GAP_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-12-03_51_.xlsx
@@ -1362,7 +1362,7 @@
     <row ht="16" customHeight="true" r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>Total number of conatiners:7</t>
+          <t>Total number of containers:7</t>
         </is>
       </c>
     </row>
